--- a/hiqu/HR/Performance Evaluation/April 2025/Dev_time - March 2025 R1_2.xlsx
+++ b/hiqu/HR/Performance Evaluation/April 2025/Dev_time - March 2025 R1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\April 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CA3C61-7A40-48B5-9070-A3FAC8DD5A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9A6DD5-0E47-4E86-8C39-D1D0414313BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="737" xr2:uid="{8191B344-5073-4099-9353-A2611E70FE0B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10896" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10884" uniqueCount="614">
   <si>
     <t>employee</t>
   </si>
@@ -2139,7 +2139,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2288,7 +2288,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency 2" xfId="2" xr:uid="{413B437C-9276-40BB-934A-392A72DA6D70}"/>
@@ -2296,7 +2301,172 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4E2FBC51-E20D-476C-9DE2-3862F353DE93}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{46AA41B7-D01C-4DA9-9528-512A9B7ECB3D}"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="264">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -19936,34 +20106,34 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88EB06BC-B5D6-423C-834C-398C131507AB}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="B4:AB25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{88EB06BC-B5D6-423C-834C-398C131507AB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B4:V19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="25">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
+        <item h="1" sd="0" x="1"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
         <item sd="0" x="4"/>
         <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
+        <item h="1" sd="0" x="6"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="8"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="10"/>
         <item sd="0" x="16"/>
-        <item n="Hamza Nouman" sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item m="1" x="23"/>
+        <item n="Hamza Nouman" h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="13"/>
+        <item h="1" sd="0" x="17"/>
+        <item h="1" sd="0" x="14"/>
+        <item h="1" sd="0" x="15"/>
+        <item x="18"/>
+        <item h="1" sd="0" x="19"/>
+        <item h="1" m="1" x="23"/>
         <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
+        <item h="1" sd="0" x="21"/>
         <item sd="0" x="22"/>
         <item t="default" sd="0"/>
       </items>
@@ -19973,7 +20143,7 @@
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item x="2"/>
-        <item x="3"/>
+        <item sd="0" x="3"/>
         <item x="4"/>
         <item x="10"/>
         <item x="7"/>
@@ -20201,15 +20371,9 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="14">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="4"/>
@@ -20218,43 +20382,31 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
     </i>
     <i>
       <x v="18"/>
     </i>
-    <i>
-      <x v="19"/>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="2">
+      <x v="100"/>
+    </i>
+    <i r="2">
+      <x v="116"/>
+    </i>
+    <i r="2">
+      <x v="117"/>
+    </i>
+    <i r="2">
+      <x v="124"/>
     </i>
     <i>
       <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
     </i>
     <i>
       <x v="23"/>
@@ -20266,10 +20418,7 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="26">
-    <i>
-      <x/>
-    </i>
+  <colItems count="20">
     <i>
       <x v="1"/>
     </i>
@@ -20292,12 +20441,6 @@
       <x v="7"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
       <x v="11"/>
     </i>
     <i>
@@ -20310,9 +20453,6 @@
       <x v="14"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
       <x v="17"/>
     </i>
     <i>
@@ -20322,13 +20462,7 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="20"/>
-    </i>
-    <i>
       <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
     </i>
     <i>
       <x v="24"/>
@@ -20353,10 +20487,10 @@
     <dataField name="Actual" fld="5" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="227">
+    <format dxfId="263">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="226">
+    <format dxfId="262">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20365,33 +20499,33 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="261">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="224">
+    <format dxfId="260">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="223">
+    <format dxfId="259">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="258">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="221">
+    <format dxfId="257">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="220">
+    <format dxfId="256">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="255">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20400,7 +20534,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="254">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -20412,7 +20546,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="253">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -20424,7 +20558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="252">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1">
@@ -20450,7 +20584,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5909108D-3041-4388-920C-E802929A0E98}" name="PivotTable5" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5909108D-3041-4388-920C-E802929A0E98}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:U14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -20650,7 +20784,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FAFC430-D681-4579-9FAC-256CEE63FF35}" name="PivotTable4" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FAFC430-D681-4579-9FAC-256CEE63FF35}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AA24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -20904,7 +21038,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55F495ED-0EAE-44A7-A6CD-E34F71DBF6AF}" name="PivotTable6" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55F495ED-0EAE-44A7-A6CD-E34F71DBF6AF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:U31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -21158,7 +21292,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C16C8E9-76EC-4637-905B-2D8AB69EF5B8}" name="PivotTable7" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C16C8E9-76EC-4637-905B-2D8AB69EF5B8}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:M28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -21371,14 +21505,13 @@
       <items count="23">
         <i x="5" s="1"/>
         <i x="19" s="1"/>
-        <i x="21" s="1"/>
         <i x="16" s="1"/>
         <i x="20" s="1"/>
         <i x="18" s="1"/>
-        <i x="12" s="1"/>
         <i x="3" s="1"/>
         <i x="7" s="1"/>
         <i x="0" s="1" nd="1"/>
+        <i x="21" s="1" nd="1"/>
         <i x="1" s="1" nd="1"/>
         <i x="11" s="1" nd="1"/>
         <i x="13" s="1" nd="1"/>
@@ -21391,6 +21524,7 @@
         <i x="2" s="1" nd="1"/>
         <i x="15" s="1" nd="1"/>
         <i x="17" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
         <i x="22" s="1" nd="1"/>
       </items>
     </tabular>
@@ -21721,35 +21855,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D01299-8A98-44FF-A2C5-5F02F90DED4B}">
-  <dimension ref="B1:AB587"/>
+  <dimension ref="B1:V587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
@@ -22159,10 +22293,10 @@
     <col min="430" max="430" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C1"/>
     </row>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
         <v>509</v>
       </c>
@@ -22170,7 +22304,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>477</v>
       </c>
@@ -22196,364 +22330,310 @@
       <c r="T4" s="39"/>
       <c r="U4" s="39"/>
       <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>46</v>
+        <v>592</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>537</v>
+        <v>64</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>538</v>
+        <v>13</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>592</v>
+        <v>70</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>545</v>
+        <v>99</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>546</v>
+        <v>95</v>
       </c>
       <c r="V5" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="W5" s="32" t="s">
-        <v>603</v>
-      </c>
-      <c r="X5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB5" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37">
+      <c r="C6" s="37">
         <v>7</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37">
+        <v>28</v>
+      </c>
       <c r="F6" s="37">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G6" s="37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H6" s="37">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I6" s="37">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J6" s="37">
         <v>2</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37">
+      <c r="K6" s="37">
+        <v>25.5</v>
+      </c>
+      <c r="L6" s="37">
+        <v>31.5</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37">
+        <v>3</v>
+      </c>
+      <c r="O6" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="P6" s="37">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>21</v>
+      </c>
+      <c r="R6" s="37">
+        <v>15</v>
+      </c>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="V6" s="37">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="37">
         <v>2</v>
       </c>
-      <c r="N6" s="37">
-        <v>25.5</v>
-      </c>
-      <c r="O6" s="37">
-        <v>31.5</v>
-      </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37">
-        <v>3</v>
-      </c>
-      <c r="S6" s="37">
-        <v>3.5</v>
-      </c>
-      <c r="T6" s="37">
-        <v>6</v>
-      </c>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37">
-        <v>21</v>
-      </c>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37">
-        <v>4.5</v>
-      </c>
-      <c r="AB6" s="37">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="C7" s="37"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="E7" s="37">
+        <v>2</v>
+      </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37">
+        <v>79.25</v>
+      </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="K7" s="37">
+        <v>30</v>
+      </c>
+      <c r="L7" s="37">
+        <v>28.5</v>
+      </c>
+      <c r="M7" s="37">
+        <v>1</v>
+      </c>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
+      <c r="R7" s="37">
+        <v>6</v>
+      </c>
       <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
+      <c r="T7" s="37">
+        <v>22.25</v>
+      </c>
+      <c r="U7" s="37">
+        <v>1</v>
+      </c>
       <c r="V7" s="37">
-        <v>166</v>
-      </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="C8" s="37">
+        <v>9</v>
+      </c>
       <c r="D8" s="37">
-        <v>5.5</v>
-      </c>
-      <c r="E8" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="37">
+        <v>21</v>
+      </c>
       <c r="F8" s="37">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37">
-        <v>25</v>
-      </c>
+      <c r="H8" s="37">
+        <v>39.5</v>
+      </c>
+      <c r="I8" s="37"/>
       <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="K8" s="37">
+        <v>43</v>
+      </c>
+      <c r="L8" s="37">
+        <v>37</v>
+      </c>
+      <c r="M8" s="37">
+        <v>2</v>
+      </c>
       <c r="N8" s="37">
-        <v>29.5</v>
-      </c>
-      <c r="O8" s="37">
-        <v>40.5</v>
-      </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="37">
+        <v>4.5</v>
+      </c>
       <c r="R8" s="37">
-        <v>11.5</v>
-      </c>
-      <c r="S8" s="37">
-        <v>9.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
       <c r="V8" s="37">
-        <v>12</v>
-      </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37">
+        <v>95</v>
+      </c>
+      <c r="I9" s="37">
+        <v>3</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37">
+        <v>32</v>
+      </c>
+      <c r="L9" s="37">
+        <v>29.5</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37">
         <v>5</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="AA8" s="37">
-        <v>14.5</v>
-      </c>
-      <c r="AB8" s="37">
-        <v>176.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37">
+      <c r="R9" s="37">
+        <v>3</v>
+      </c>
+      <c r="S9" s="37">
         <v>2</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
-        <v>2</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37">
-        <v>79.25</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
-        <v>30</v>
-      </c>
-      <c r="O9" s="37">
-        <v>28.5</v>
-      </c>
-      <c r="P9" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37">
+      <c r="V9" s="37">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="37">
         <v>6</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
-        <v>22.25</v>
-      </c>
-      <c r="AA9" s="37">
+      <c r="D10" s="37">
+        <v>4</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37">
+        <v>133</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37">
+        <v>16</v>
+      </c>
+      <c r="L10" s="37">
         <v>1</v>
       </c>
-      <c r="AB9" s="37">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37">
-        <v>9</v>
-      </c>
-      <c r="E10" s="37">
-        <v>7</v>
-      </c>
-      <c r="F10" s="37">
-        <v>21</v>
-      </c>
-      <c r="G10" s="37">
-        <v>3</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37">
-        <v>39.5</v>
-      </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
       <c r="M10" s="37"/>
-      <c r="N10" s="37">
-        <v>43</v>
-      </c>
-      <c r="O10" s="37">
-        <v>37</v>
-      </c>
-      <c r="P10" s="37">
-        <v>2</v>
-      </c>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
-      <c r="R10" s="37">
-        <v>2</v>
-      </c>
+      <c r="R10" s="37"/>
       <c r="S10" s="37"/>
-      <c r="T10" s="37">
-        <v>6</v>
-      </c>
-      <c r="U10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37">
+        <v>20</v>
+      </c>
       <c r="V10" s="37">
-        <v>4.5</v>
-      </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C11" s="37">
-        <v>74.5</v>
-      </c>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -22562,157 +22642,109 @@
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37">
-        <v>54</v>
-      </c>
-      <c r="L11" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="L11" s="37">
+        <v>1</v>
+      </c>
       <c r="M11" s="37"/>
-      <c r="N11" s="37">
-        <v>16</v>
-      </c>
-      <c r="O11" s="37">
-        <v>8.5</v>
-      </c>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="37"/>
+      <c r="U11" s="37">
+        <v>20</v>
+      </c>
+      <c r="V11" s="37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="C12" s="37">
+        <v>6</v>
+      </c>
       <c r="D12" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="37"/>
-      <c r="F12" s="37">
-        <v>19</v>
-      </c>
+      <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="H12" s="37">
+        <v>133</v>
+      </c>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
-      <c r="N12" s="37">
-        <v>40</v>
-      </c>
-      <c r="O12" s="37">
-        <v>9</v>
-      </c>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="37">
-        <v>4</v>
-      </c>
+      <c r="T12" s="37"/>
       <c r="U12" s="37"/>
       <c r="V12" s="37">
-        <v>36</v>
-      </c>
-      <c r="W12" s="37">
-        <v>6</v>
-      </c>
-      <c r="X12" s="37">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="37">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="37">
-        <v>46</v>
-      </c>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
-        <v>56</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="55" t="s">
+        <v>553</v>
       </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="D13" s="37">
+        <v>4</v>
+      </c>
       <c r="E13" s="37"/>
-      <c r="F13" s="37">
-        <v>10.5</v>
-      </c>
+      <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="H13" s="37">
+        <v>9</v>
+      </c>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
-      <c r="N13" s="37">
-        <v>28</v>
-      </c>
-      <c r="O13" s="37">
-        <v>35.5</v>
-      </c>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
-      <c r="S13" s="37">
-        <v>9.5</v>
-      </c>
+      <c r="S13" s="37"/>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
       <c r="V13" s="37">
-        <v>10</v>
-      </c>
-      <c r="W13" s="37">
-        <v>38</v>
-      </c>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37">
-        <v>170.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="55" t="s">
+        <v>571</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37">
-        <v>95</v>
-      </c>
-      <c r="J14" s="37">
-        <v>3</v>
-      </c>
+      <c r="H14" s="37">
+        <v>22</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
-      <c r="N14" s="37">
-        <v>32</v>
-      </c>
-      <c r="O14" s="37">
-        <v>29.5</v>
-      </c>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
@@ -22720,99 +22752,59 @@
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
       <c r="V14" s="37">
-        <v>5</v>
-      </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="37">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37">
-        <v>169.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="37"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="55" t="s">
+        <v>572</v>
+      </c>
+      <c r="C15" s="37">
+        <v>6</v>
+      </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
-      <c r="F15" s="37">
-        <v>21</v>
-      </c>
-      <c r="G15" s="37">
-        <v>1</v>
-      </c>
-      <c r="H15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37">
+        <v>82</v>
+      </c>
       <c r="I15" s="37"/>
-      <c r="J15" s="37">
-        <v>21</v>
-      </c>
+      <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
-      <c r="N15" s="37">
-        <v>24</v>
-      </c>
-      <c r="O15" s="37">
-        <v>23</v>
-      </c>
-      <c r="P15" s="37">
-        <v>6</v>
-      </c>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
-      <c r="R15" s="37">
-        <v>5</v>
-      </c>
+      <c r="R15" s="37"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="37">
-        <v>12</v>
-      </c>
+      <c r="T15" s="37"/>
       <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37">
-        <v>15</v>
-      </c>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37">
-        <v>41</v>
-      </c>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>61</v>
+      <c r="V15" s="37">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="55" t="s">
+        <v>593</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="37">
-        <v>125</v>
-      </c>
+      <c r="F16" s="37"/>
       <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="H16" s="37">
+        <v>20</v>
+      </c>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
-      <c r="L16" s="37">
-        <v>9</v>
-      </c>
+      <c r="L16" s="37"/>
       <c r="M16" s="37"/>
-      <c r="N16" s="37">
-        <v>16</v>
-      </c>
-      <c r="O16" s="37">
-        <v>2.5</v>
-      </c>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
@@ -22820,76 +22812,66 @@
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
       <c r="V16" s="37">
-        <v>8</v>
-      </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="C17" s="37">
         <v>17</v>
       </c>
-      <c r="AB16" s="37">
-        <v>177.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="37">
+        <v>14</v>
+      </c>
       <c r="E17" s="37"/>
-      <c r="F17" s="37">
-        <v>60</v>
-      </c>
+      <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37">
-        <v>8</v>
-      </c>
-      <c r="I17" s="37">
-        <v>28</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I17" s="37"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="K17" s="37">
+        <v>16</v>
+      </c>
+      <c r="L17" s="37">
+        <v>2.5</v>
+      </c>
       <c r="M17" s="37"/>
-      <c r="N17" s="37">
-        <v>56</v>
-      </c>
+      <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="U17" s="37">
+        <v>17.5</v>
+      </c>
+      <c r="V17" s="37">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="C18" s="37">
-        <v>56</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="H18" s="37">
+        <v>39.82</v>
+      </c>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="37">
+        <v>7.24</v>
+      </c>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
@@ -22898,367 +22880,151 @@
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="U18" s="37">
+        <v>17.8</v>
+      </c>
+      <c r="V18" s="37">
+        <v>64.86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>544</v>
+        <v>73</v>
       </c>
       <c r="C19" s="37">
-        <v>7</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="D19" s="37">
+        <v>25</v>
+      </c>
+      <c r="E19" s="37">
+        <v>51</v>
+      </c>
+      <c r="F19" s="37">
+        <v>14</v>
+      </c>
+      <c r="G19" s="37">
+        <v>1</v>
+      </c>
+      <c r="H19" s="37">
+        <v>479.57</v>
+      </c>
+      <c r="I19" s="37">
+        <v>5</v>
+      </c>
+      <c r="J19" s="37">
+        <v>2</v>
+      </c>
+      <c r="K19" s="37">
+        <v>162.5</v>
+      </c>
       <c r="L19" s="37">
-        <v>13</v>
-      </c>
-      <c r="M19" s="37"/>
+        <v>137.24</v>
+      </c>
+      <c r="M19" s="37">
+        <v>3</v>
+      </c>
       <c r="N19" s="37">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O19" s="37">
-        <v>46</v>
-      </c>
-      <c r="P19" s="37"/>
+        <v>3.5</v>
+      </c>
+      <c r="P19" s="37">
+        <v>12</v>
+      </c>
       <c r="Q19" s="37">
-        <v>24</v>
-      </c>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+        <v>30.5</v>
+      </c>
+      <c r="R19" s="37">
+        <v>26</v>
+      </c>
+      <c r="S19" s="37">
+        <v>2</v>
+      </c>
+      <c r="T19" s="37">
+        <v>22.25</v>
+      </c>
       <c r="U19" s="37">
-        <v>49</v>
-      </c>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37">
-        <v>6</v>
-      </c>
-      <c r="E20" s="37">
-        <v>4</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37">
-        <v>133</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37">
-        <v>16</v>
-      </c>
-      <c r="O20" s="37">
-        <v>1</v>
-      </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37">
-        <v>20</v>
-      </c>
-      <c r="AB20" s="37">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="C21" s="37">
-        <v>4.5</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37">
-        <v>46</v>
-      </c>
-      <c r="G21" s="37">
-        <v>24.5</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37">
-        <v>24</v>
-      </c>
-      <c r="O21" s="37">
-        <v>12</v>
-      </c>
-      <c r="P21" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37">
-        <v>1</v>
-      </c>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37">
-        <v>62</v>
-      </c>
-      <c r="AB21" s="37">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37">
-        <v>17</v>
-      </c>
-      <c r="E22" s="37">
-        <v>14</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37">
-        <v>80</v>
-      </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37">
-        <v>16</v>
-      </c>
-      <c r="O22" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37">
-        <v>17.5</v>
-      </c>
-      <c r="AB22" s="37">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
-        <v>612</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37">
-        <v>28.5</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37">
-        <v>79</v>
-      </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37">
-        <v>16</v>
-      </c>
-      <c r="O23" s="37">
-        <v>20</v>
-      </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37">
-        <v>31.5</v>
-      </c>
-      <c r="AB23" s="37">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37">
-        <v>39.82</v>
-      </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37">
-        <v>7.24</v>
-      </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37">
-        <v>17.8</v>
-      </c>
-      <c r="AB24" s="37">
-        <v>64.86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="37">
-        <v>142</v>
-      </c>
-      <c r="D25" s="37">
-        <v>48.5</v>
-      </c>
-      <c r="E25" s="37">
-        <v>25</v>
-      </c>
-      <c r="F25" s="37">
-        <v>382</v>
-      </c>
-      <c r="G25" s="37">
-        <v>39.5</v>
-      </c>
-      <c r="H25" s="37">
-        <v>9</v>
-      </c>
-      <c r="I25" s="37">
-        <v>611.57000000000005</v>
-      </c>
-      <c r="J25" s="37">
-        <v>26</v>
-      </c>
-      <c r="K25" s="37">
-        <v>54</v>
-      </c>
-      <c r="L25" s="37">
-        <v>22</v>
-      </c>
-      <c r="M25" s="37">
-        <v>2</v>
-      </c>
-      <c r="N25" s="37">
-        <v>428</v>
-      </c>
-      <c r="O25" s="37">
-        <v>334.24</v>
-      </c>
-      <c r="P25" s="37">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="37">
-        <v>24</v>
-      </c>
-      <c r="R25" s="37">
-        <v>21.5</v>
-      </c>
-      <c r="S25" s="37">
-        <v>22.5</v>
-      </c>
-      <c r="T25" s="37">
-        <v>28</v>
-      </c>
-      <c r="U25" s="37">
-        <v>49</v>
-      </c>
-      <c r="V25" s="37">
-        <v>263.5</v>
-      </c>
-      <c r="W25" s="37">
-        <v>59</v>
-      </c>
-      <c r="X25" s="37">
-        <v>34</v>
-      </c>
-      <c r="Y25" s="37">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="37">
-        <v>150.75</v>
-      </c>
-      <c r="AA25" s="37">
-        <v>185.8</v>
-      </c>
-      <c r="AB25" s="37">
-        <v>2982.86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+        <v>60.8</v>
+      </c>
+      <c r="V19" s="37">
+        <v>1083.3599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -23270,7 +23036,7 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -23282,7 +23048,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -23294,7 +23060,7 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -23306,7 +23072,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -23318,7 +23084,7 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -23330,7 +23096,7 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -23342,198 +23108,22 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -28637,50 +28227,43 @@
       <c r="A5" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5">
         <v>26.5</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54">
+      <c r="F5">
         <v>18.5</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5">
         <v>153</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54">
+      <c r="K5">
         <v>22</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5">
         <v>9</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5">
         <v>56</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5">
         <v>56</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5">
         <v>131</v>
       </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54">
+      <c r="Q5">
         <v>13</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5">
         <v>2.5</v>
       </c>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54">
+      <c r="T5">
         <v>7.24</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5">
         <v>498.74</v>
       </c>
     </row>
@@ -28688,28 +28271,10 @@
       <c r="A6" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54">
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54">
+      <c r="U6">
         <v>1</v>
       </c>
     </row>
@@ -28717,56 +28282,52 @@
       <c r="A7" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7">
         <v>49.5</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54">
+      <c r="D7">
         <v>94</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7">
         <v>48</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7">
         <v>44</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54">
+      <c r="H7">
         <v>51</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7">
         <v>73.5</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7">
         <v>54</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7">
         <v>31</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7">
         <v>35.5</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54">
+      <c r="O7">
         <v>24</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7">
         <v>37</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7">
         <v>106</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7">
         <v>50.5</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7">
         <v>68.5</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7">
         <v>17.8</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U7">
         <v>784.3</v>
       </c>
     </row>
@@ -28774,52 +28335,46 @@
       <c r="A8" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8">
         <v>29.5</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8">
         <v>166</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8">
         <v>33</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8">
         <v>25.5</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54">
+      <c r="H8">
         <v>52</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8">
         <v>20.5</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8">
         <v>21</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8">
         <v>133</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8">
         <v>60</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54">
+      <c r="Q8">
         <v>46</v>
       </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54">
+      <c r="S8">
         <v>28.5</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54">
+      <c r="U8">
         <v>622</v>
       </c>
     </row>
@@ -28827,48 +28382,40 @@
       <c r="A9" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9">
         <v>46.5</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54">
+      <c r="D9">
         <v>16.5</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9">
         <v>122</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9">
         <v>88</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54">
+      <c r="H9">
         <v>60</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9">
         <v>17.5</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54">
+      <c r="K9">
         <v>34</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54">
+      <c r="P9">
         <v>143</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9">
         <v>7.5</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9">
         <v>38</v>
       </c>
-      <c r="S9" s="54">
+      <c r="S9">
         <v>74</v>
       </c>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54">
+      <c r="U9">
         <v>647</v>
       </c>
     </row>
@@ -28876,46 +28423,37 @@
       <c r="A10" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10">
         <v>18.5</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54">
+      <c r="D10">
         <v>33</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54">
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10">
         <v>59</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10">
         <v>110.5</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10">
         <v>61</v>
       </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54">
+      <c r="Q10">
         <v>2.5</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10">
         <v>56</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10">
         <v>4</v>
       </c>
-      <c r="T10" s="54">
+      <c r="T10">
         <v>17.399999999999999</v>
       </c>
-      <c r="U10" s="54">
+      <c r="U10">
         <v>367.9</v>
       </c>
     </row>
@@ -28923,28 +28461,10 @@
       <c r="A11" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54">
+      <c r="U11">
         <v>2</v>
       </c>
     </row>
@@ -28952,30 +28472,13 @@
       <c r="A12" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12">
         <v>1.5</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54">
+      <c r="T12">
         <v>22.42</v>
       </c>
-      <c r="U12" s="54">
+      <c r="U12">
         <v>23.92</v>
       </c>
     </row>
@@ -28983,28 +28486,10 @@
       <c r="A13" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54">
+      <c r="M13">
         <v>36</v>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54">
+      <c r="U13">
         <v>36</v>
       </c>
     </row>
@@ -29012,64 +28497,64 @@
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14">
         <v>174</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14">
         <v>166</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14">
         <v>176.5</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14">
         <v>172</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14">
         <v>176</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14">
         <v>153</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14">
         <v>173</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14">
         <v>170.5</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14">
         <v>169.5</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14">
         <v>169</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14">
         <v>177.5</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14">
         <v>152</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14">
         <v>56</v>
       </c>
-      <c r="O14" s="54">
+      <c r="O14">
         <v>155</v>
       </c>
-      <c r="P14" s="54">
+      <c r="P14">
         <v>180</v>
       </c>
-      <c r="Q14" s="54">
+      <c r="Q14">
         <v>176</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14">
         <v>147</v>
       </c>
-      <c r="S14" s="54">
+      <c r="S14">
         <v>175</v>
       </c>
-      <c r="T14" s="54">
+      <c r="T14">
         <v>64.86</v>
       </c>
-      <c r="U14" s="54">
+      <c r="U14">
         <v>2982.86</v>
       </c>
     </row>
@@ -29240,62 +28725,52 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54">
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54">
+      <c r="E5">
         <v>28</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54">
+      <c r="L5">
         <v>25.5</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5">
         <v>31.5</v>
       </c>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54">
+      <c r="P5">
         <v>3</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5">
         <v>3.5</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5">
         <v>6</v>
       </c>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54">
+      <c r="T5">
         <v>15</v>
       </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54">
+      <c r="W5">
         <v>4.5</v>
       </c>
-      <c r="X5" s="54">
+      <c r="X5">
         <v>21</v>
       </c>
-      <c r="Y5" s="54">
+      <c r="Y5">
         <v>2</v>
       </c>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54">
+      <c r="AA5">
         <v>174</v>
       </c>
     </row>
@@ -29303,34 +28778,10 @@
       <c r="A6" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54">
+      <c r="X6">
         <v>166</v>
       </c>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54">
+      <c r="AA6">
         <v>166</v>
       </c>
     </row>
@@ -29338,54 +28789,40 @@
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54">
+      <c r="C7">
         <v>5.5</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54">
+      <c r="E7">
         <v>21</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54">
+      <c r="H7">
         <v>25</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54">
+      <c r="L7">
         <v>29.5</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7">
         <v>40.5</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54">
+      <c r="P7">
         <v>11.5</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7">
         <v>9.5</v>
       </c>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54">
+      <c r="T7">
         <v>5</v>
       </c>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54">
+      <c r="V7">
         <v>2.5</v>
       </c>
-      <c r="W7" s="54">
+      <c r="W7">
         <v>14.5</v>
       </c>
-      <c r="X7" s="54">
+      <c r="X7">
         <v>12</v>
       </c>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54">
+      <c r="AA7">
         <v>176.5</v>
       </c>
     </row>
@@ -29393,50 +28830,34 @@
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54">
+      <c r="H8">
         <v>79.25</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54">
+      <c r="L8">
         <v>30</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8">
         <v>28.5</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54">
+      <c r="T8">
         <v>6</v>
       </c>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54">
+      <c r="V8">
         <v>22.25</v>
       </c>
-      <c r="W8" s="54">
+      <c r="W8">
         <v>1</v>
       </c>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54">
+      <c r="AA8">
         <v>172</v>
       </c>
     </row>
@@ -29444,56 +28865,43 @@
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54">
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9">
         <v>21</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54">
+      <c r="H9">
         <v>39.5</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54">
+      <c r="L9">
         <v>43</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9">
         <v>37</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54">
+      <c r="R9">
         <v>6</v>
       </c>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54">
+      <c r="T9">
         <v>2</v>
       </c>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54">
+      <c r="X9">
         <v>4.5</v>
       </c>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54">
+      <c r="AA9">
         <v>176</v>
       </c>
     </row>
@@ -29501,40 +28909,19 @@
       <c r="A10" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10">
         <v>74.5</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54">
+      <c r="J10">
         <v>54</v>
       </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54">
+      <c r="L10">
         <v>16</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10">
         <v>8.5</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54">
+      <c r="AA10">
         <v>153</v>
       </c>
     </row>
@@ -29542,52 +28929,37 @@
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54">
+      <c r="E11">
         <v>19</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54">
+      <c r="L11">
         <v>40</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11">
         <v>9</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54">
+      <c r="R11">
         <v>4</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54">
+      <c r="T11">
         <v>3</v>
       </c>
-      <c r="U11" s="54">
+      <c r="U11">
         <v>8</v>
       </c>
-      <c r="V11" s="54">
+      <c r="V11">
         <v>46</v>
       </c>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54">
+      <c r="X11">
         <v>36</v>
       </c>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54">
+      <c r="Z11">
         <v>6</v>
       </c>
-      <c r="AA11" s="54">
+      <c r="AA11">
         <v>173</v>
       </c>
     </row>
@@ -29595,46 +28967,28 @@
       <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54">
+      <c r="E12">
         <v>10.5</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54">
+      <c r="L12">
         <v>28</v>
       </c>
-      <c r="M12" s="54">
+      <c r="M12">
         <v>35.5</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54">
+      <c r="Q12">
         <v>9.5</v>
       </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54">
+      <c r="V12">
         <v>39</v>
       </c>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54">
+      <c r="X12">
         <v>10</v>
       </c>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54">
+      <c r="Z12">
         <v>38</v>
       </c>
-      <c r="AA12" s="54">
+      <c r="AA12">
         <v>170.5</v>
       </c>
     </row>
@@ -29642,46 +28996,28 @@
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54">
+      <c r="H13">
         <v>95</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13">
         <v>3</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54">
+      <c r="L13">
         <v>32</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13">
         <v>29.5</v>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54">
+      <c r="T13">
         <v>3</v>
       </c>
-      <c r="U13" s="54">
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54">
+      <c r="X13">
         <v>5</v>
       </c>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54">
+      <c r="AA13">
         <v>169.5</v>
       </c>
     </row>
@@ -29689,52 +29025,37 @@
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54">
+      <c r="E14">
         <v>21</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54">
+      <c r="I14">
         <v>21</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54">
+      <c r="L14">
         <v>24</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14">
         <v>23</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14">
         <v>6</v>
       </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54">
+      <c r="P14">
         <v>5</v>
       </c>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54">
+      <c r="R14">
         <v>12</v>
       </c>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54">
+      <c r="V14">
         <v>41</v>
       </c>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54">
+      <c r="Z14">
         <v>15</v>
       </c>
-      <c r="AA14" s="54">
+      <c r="AA14">
         <v>169</v>
       </c>
     </row>
@@ -29742,44 +29063,25 @@
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54">
+      <c r="E15">
         <v>125</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54">
+      <c r="K15">
         <v>9</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15">
         <v>16</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15">
         <v>2.5</v>
       </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54">
+      <c r="W15">
         <v>17</v>
       </c>
-      <c r="X15" s="54">
+      <c r="X15">
         <v>8</v>
       </c>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54">
+      <c r="AA15">
         <v>177.5</v>
       </c>
     </row>
@@ -29787,40 +29089,19 @@
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54">
+      <c r="E16">
         <v>60</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54">
+      <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16">
         <v>28</v>
       </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54">
+      <c r="L16">
         <v>56</v>
       </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54">
+      <c r="AA16">
         <v>152</v>
       </c>
     </row>
@@ -29828,34 +29109,10 @@
       <c r="A17" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17">
         <v>56</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54">
+      <c r="AA17">
         <v>56</v>
       </c>
     </row>
@@ -29863,44 +29120,25 @@
       <c r="A18" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18">
         <v>7</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54">
+      <c r="K18">
         <v>13</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18">
         <v>16</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18">
         <v>46</v>
       </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54">
+      <c r="O18">
         <v>24</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54">
+      <c r="S18">
         <v>49</v>
       </c>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54">
+      <c r="AA18">
         <v>155</v>
       </c>
     </row>
@@ -29908,44 +29146,25 @@
       <c r="A19" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54">
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54">
+      <c r="H19">
         <v>133</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54">
+      <c r="L19">
         <v>16</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M19">
         <v>1</v>
       </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54">
+      <c r="W19">
         <v>20</v>
       </c>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54">
+      <c r="AA19">
         <v>180</v>
       </c>
     </row>
@@ -29953,48 +29172,31 @@
       <c r="A20" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20">
         <v>4.5</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54">
+      <c r="E20">
         <v>46</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20">
         <v>24.5</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54">
+      <c r="L20">
         <v>24</v>
       </c>
-      <c r="M20" s="54">
+      <c r="M20">
         <v>12</v>
       </c>
-      <c r="N20" s="54">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54">
+      <c r="W20">
         <v>62</v>
       </c>
-      <c r="X20" s="54">
+      <c r="X20">
         <v>1</v>
       </c>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54">
+      <c r="AA20">
         <v>176</v>
       </c>
     </row>
@@ -30002,44 +29204,25 @@
       <c r="A21" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54">
+      <c r="C21">
         <v>17</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21">
         <v>14</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54">
+      <c r="H21">
         <v>80</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54">
+      <c r="L21">
         <v>16</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21">
         <v>2.5</v>
       </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54">
+      <c r="W21">
         <v>17.5</v>
       </c>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54">
+      <c r="AA21">
         <v>147</v>
       </c>
     </row>
@@ -30047,42 +29230,22 @@
       <c r="A22" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54">
+      <c r="E22">
         <v>28.5</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54">
+      <c r="H22">
         <v>79</v>
       </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54">
+      <c r="L22">
         <v>16</v>
       </c>
-      <c r="M22" s="54">
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54">
+      <c r="W22">
         <v>31.5</v>
       </c>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54">
+      <c r="AA22">
         <v>175</v>
       </c>
     </row>
@@ -30090,38 +29253,16 @@
       <c r="A23" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54">
+      <c r="H23">
         <v>39.82</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54">
+      <c r="M23">
         <v>7.24</v>
       </c>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54">
+      <c r="W23">
         <v>17.8</v>
       </c>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54">
+      <c r="AA23">
         <v>64.86</v>
       </c>
     </row>
@@ -30129,82 +29270,82 @@
       <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24">
         <v>142</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24">
         <v>48.5</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24">
         <v>25</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24">
         <v>382</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24">
         <v>39.5</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24">
         <v>9</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24">
         <v>611.57000000000005</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24">
         <v>26</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24">
         <v>54</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24">
         <v>22</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24">
         <v>428</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M24">
         <v>334.24</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24">
         <v>11</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24">
         <v>24</v>
       </c>
-      <c r="P24" s="54">
+      <c r="P24">
         <v>21.5</v>
       </c>
-      <c r="Q24" s="54">
+      <c r="Q24">
         <v>22.5</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24">
         <v>28</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24">
         <v>49</v>
       </c>
-      <c r="T24" s="54">
+      <c r="T24">
         <v>34</v>
       </c>
-      <c r="U24" s="54">
+      <c r="U24">
         <v>10</v>
       </c>
-      <c r="V24" s="54">
+      <c r="V24">
         <v>150.75</v>
       </c>
-      <c r="W24" s="54">
+      <c r="W24">
         <v>185.8</v>
       </c>
-      <c r="X24" s="54">
+      <c r="X24">
         <v>263.5</v>
       </c>
-      <c r="Y24" s="54">
+      <c r="Y24">
         <v>2</v>
       </c>
-      <c r="Z24" s="54">
+      <c r="Z24">
         <v>59</v>
       </c>
-      <c r="AA24" s="54">
+      <c r="AA24">
         <v>2982.86</v>
       </c>
     </row>
@@ -30340,34 +29481,19 @@
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54">
+      <c r="G6">
         <v>74.5</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54">
+      <c r="N6">
         <v>56</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6">
         <v>7</v>
       </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54">
+      <c r="Q6">
         <v>4.5</v>
       </c>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54">
+      <c r="U6">
         <v>142</v>
       </c>
     </row>
@@ -30375,40 +29501,28 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54">
+      <c r="D7">
         <v>5.5</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54">
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54">
+      <c r="R7">
         <v>17</v>
       </c>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54">
+      <c r="U7">
         <v>48.5</v>
       </c>
     </row>
@@ -30416,32 +29530,16 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54">
+      <c r="P8">
         <v>4</v>
       </c>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54">
+      <c r="R8">
         <v>14</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54">
+      <c r="U8">
         <v>25</v>
       </c>
     </row>
@@ -30449,48 +29547,40 @@
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9">
         <v>28</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54">
+      <c r="D9">
         <v>21</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9">
         <v>21</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54">
+      <c r="H9">
         <v>19</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9">
         <v>10.5</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54">
+      <c r="K9">
         <v>21</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9">
         <v>125</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9">
         <v>60</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54">
+      <c r="Q9">
         <v>46</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54">
+      <c r="S9">
         <v>28.5</v>
       </c>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54">
+      <c r="U9">
         <v>382</v>
       </c>
     </row>
@@ -30498,34 +29588,19 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10">
         <v>11</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54">
+      <c r="Q10">
         <v>24.5</v>
       </c>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54">
+      <c r="U10">
         <v>39.5</v>
       </c>
     </row>
@@ -30533,30 +29608,13 @@
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54">
+      <c r="M11">
         <v>8</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54">
+      <c r="U11">
         <v>9</v>
       </c>
     </row>
@@ -30564,46 +29622,37 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12">
         <v>13</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54">
+      <c r="D12">
         <v>25</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12">
         <v>79.25</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12">
         <v>39.5</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54">
+      <c r="J12">
         <v>95</v>
       </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54">
+      <c r="M12">
         <v>28</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54">
+      <c r="P12">
         <v>133</v>
       </c>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54">
+      <c r="R12">
         <v>80</v>
       </c>
-      <c r="S12" s="54">
+      <c r="S12">
         <v>79</v>
       </c>
-      <c r="T12" s="54">
+      <c r="T12">
         <v>39.82</v>
       </c>
-      <c r="U12" s="54">
+      <c r="U12">
         <v>611.57000000000005</v>
       </c>
     </row>
@@ -30611,32 +29660,16 @@
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54">
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13">
         <v>21</v>
       </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54">
+      <c r="U13">
         <v>26</v>
       </c>
     </row>
@@ -30644,28 +29677,10 @@
       <c r="A14" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54">
+      <c r="G14">
         <v>54</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54">
+      <c r="U14">
         <v>54</v>
       </c>
     </row>
@@ -30673,30 +29688,13 @@
       <c r="A15" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54">
+      <c r="L15">
         <v>9</v>
       </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54">
+      <c r="O15">
         <v>13</v>
       </c>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54">
+      <c r="U15">
         <v>22</v>
       </c>
     </row>
@@ -30704,58 +29702,55 @@
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16">
         <v>25.5</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54">
+      <c r="D16">
         <v>29.5</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16">
         <v>30</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16">
         <v>43</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16">
         <v>40</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16">
         <v>28</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16">
         <v>32</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16">
         <v>24</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16">
         <v>16</v>
       </c>
-      <c r="M16" s="54">
+      <c r="M16">
         <v>56</v>
       </c>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54">
+      <c r="O16">
         <v>16</v>
       </c>
-      <c r="P16" s="54">
+      <c r="P16">
         <v>16</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="Q16">
         <v>24</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16">
         <v>16</v>
       </c>
-      <c r="S16" s="54">
+      <c r="S16">
         <v>16</v>
       </c>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54">
+      <c r="U16">
         <v>428</v>
       </c>
     </row>
@@ -30763,58 +29758,55 @@
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17">
         <v>31.5</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54">
+      <c r="D17">
         <v>40.5</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17">
         <v>28.5</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17">
         <v>37</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17">
         <v>8.5</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17">
         <v>35.5</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17">
         <v>29.5</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17">
         <v>23</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17">
         <v>2.5</v>
       </c>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54">
+      <c r="O17">
         <v>46</v>
       </c>
-      <c r="P17" s="54">
+      <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17" s="54">
+      <c r="Q17">
         <v>12</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17">
         <v>2.5</v>
       </c>
-      <c r="S17" s="54">
+      <c r="S17">
         <v>20</v>
       </c>
-      <c r="T17" s="54">
+      <c r="T17">
         <v>7.24</v>
       </c>
-      <c r="U17" s="54">
+      <c r="U17">
         <v>334.24</v>
       </c>
     </row>
@@ -30822,34 +29814,19 @@
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54">
+      <c r="K18">
         <v>6</v>
       </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54">
+      <c r="Q18">
         <v>2</v>
       </c>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54">
+      <c r="U18">
         <v>11</v>
       </c>
     </row>
@@ -30857,28 +29834,10 @@
       <c r="A19" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54">
+      <c r="O19">
         <v>24</v>
       </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54">
+      <c r="U19">
         <v>24</v>
       </c>
     </row>
@@ -30886,34 +29845,19 @@
       <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54">
+      <c r="D20">
         <v>11.5</v>
       </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54">
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54">
+      <c r="K20">
         <v>5</v>
       </c>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54">
+      <c r="U20">
         <v>21.5</v>
       </c>
     </row>
@@ -30921,32 +29865,16 @@
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21">
         <v>3.5</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54">
+      <c r="D21">
         <v>9.5</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54">
+      <c r="I21">
         <v>9.5</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54">
+      <c r="U21">
         <v>22.5</v>
       </c>
     </row>
@@ -30954,34 +29882,19 @@
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54">
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54">
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54">
+      <c r="K22">
         <v>12</v>
       </c>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54">
+      <c r="U22">
         <v>28</v>
       </c>
     </row>
@@ -30989,28 +29902,10 @@
       <c r="A23" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54">
+      <c r="O23">
         <v>49</v>
       </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54">
+      <c r="U23">
         <v>49</v>
       </c>
     </row>
@@ -31018,38 +29913,25 @@
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24">
         <v>15</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54">
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24">
         <v>6</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54">
+      <c r="H24">
         <v>3</v>
       </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54">
+      <c r="J24">
         <v>3</v>
       </c>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54">
+      <c r="U24">
         <v>34</v>
       </c>
     </row>
@@ -31057,30 +29939,13 @@
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54">
+      <c r="H25">
         <v>8</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54">
+      <c r="J25">
         <v>2</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54">
+      <c r="U25">
         <v>10</v>
       </c>
     </row>
@@ -31088,36 +29953,22 @@
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54">
+      <c r="D26">
         <v>2.5</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26">
         <v>22.25</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54">
+      <c r="H26">
         <v>46</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26">
         <v>39</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54">
+      <c r="K26">
         <v>41</v>
       </c>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54">
+      <c r="U26">
         <v>150.75</v>
       </c>
     </row>
@@ -31125,44 +29976,34 @@
       <c r="A27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27">
         <v>4.5</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54">
+      <c r="D27">
         <v>14.5</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54">
+      <c r="L27">
         <v>17</v>
       </c>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54">
+      <c r="P27">
         <v>20</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27">
         <v>62</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R27">
         <v>17.5</v>
       </c>
-      <c r="S27" s="54">
+      <c r="S27">
         <v>31.5</v>
       </c>
-      <c r="T27" s="54">
+      <c r="T27">
         <v>17.8</v>
       </c>
-      <c r="U27" s="54">
+      <c r="U27">
         <v>185.8</v>
       </c>
     </row>
@@ -31170,44 +30011,34 @@
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28">
         <v>21</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28">
         <v>166</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28">
         <v>12</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54">
+      <c r="F28">
         <v>4.5</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54">
+      <c r="H28">
         <v>36</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28">
         <v>10</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28">
         <v>5</v>
       </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54">
+      <c r="L28">
         <v>8</v>
       </c>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54">
+      <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54">
+      <c r="U28">
         <v>263.5</v>
       </c>
     </row>
@@ -31215,28 +30046,10 @@
       <c r="A29" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54">
+      <c r="U29">
         <v>2</v>
       </c>
     </row>
@@ -31244,32 +30057,16 @@
       <c r="A30" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54">
+      <c r="H30">
         <v>6</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I30">
         <v>38</v>
       </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54">
+      <c r="K30">
         <v>15</v>
       </c>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54">
+      <c r="U30">
         <v>59</v>
       </c>
     </row>
@@ -31277,64 +30074,64 @@
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31">
         <v>174</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31">
         <v>166</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31">
         <v>176.5</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31">
         <v>172</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31">
         <v>176</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31">
         <v>153</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31">
         <v>173</v>
       </c>
-      <c r="I31" s="54">
+      <c r="I31">
         <v>170.5</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31">
         <v>169.5</v>
       </c>
-      <c r="K31" s="54">
+      <c r="K31">
         <v>169</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31">
         <v>177.5</v>
       </c>
-      <c r="M31" s="54">
+      <c r="M31">
         <v>152</v>
       </c>
-      <c r="N31" s="54">
+      <c r="N31">
         <v>56</v>
       </c>
-      <c r="O31" s="54">
+      <c r="O31">
         <v>155</v>
       </c>
-      <c r="P31" s="54">
+      <c r="P31">
         <v>180</v>
       </c>
-      <c r="Q31" s="54">
+      <c r="Q31">
         <v>176</v>
       </c>
-      <c r="R31" s="54">
+      <c r="R31">
         <v>147</v>
       </c>
-      <c r="S31" s="54">
+      <c r="S31">
         <v>175</v>
       </c>
-      <c r="T31" s="54">
+      <c r="T31">
         <v>64.86</v>
       </c>
-      <c r="U31" s="54">
+      <c r="U31">
         <v>2982.8600000000006</v>
       </c>
     </row>
@@ -31452,30 +30249,25 @@
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54">
+      <c r="C6">
         <v>170</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54">
+      <c r="G6">
         <v>117</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6">
         <v>315.39999999999998</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6">
         <v>52</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54">
+      <c r="M6">
         <v>662.4</v>
       </c>
     </row>
@@ -31483,20 +30275,10 @@
       <c r="A7" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54">
+      <c r="C7">
         <v>6.5</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54">
+      <c r="M7">
         <v>6.5</v>
       </c>
     </row>
@@ -31504,30 +30286,25 @@
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54">
+      <c r="C8">
         <v>21</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54">
+      <c r="G8">
         <v>96</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8">
         <v>110.5</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8">
         <v>64</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54">
+      <c r="M8">
         <v>298.5</v>
       </c>
     </row>
@@ -31535,26 +30312,19 @@
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54">
+      <c r="G9">
         <v>223</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9">
         <v>172</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9">
         <v>11</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54">
+      <c r="K9">
         <v>11</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54">
+      <c r="M9">
         <v>417</v>
       </c>
     </row>
@@ -31562,30 +30332,25 @@
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54">
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54">
+      <c r="G10">
         <v>131</v>
       </c>
-      <c r="H10" s="54">
+      <c r="H10">
         <v>217</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10">
         <v>42</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54">
+      <c r="M10">
         <v>408</v>
       </c>
     </row>
@@ -31593,28 +30358,22 @@
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54">
+      <c r="D11">
         <v>138.5</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54">
+      <c r="G11">
         <v>24</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11">
         <v>129.1</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54">
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54">
+      <c r="M11">
         <v>297.60000000000002</v>
       </c>
     </row>
@@ -31622,26 +30381,19 @@
       <c r="A12" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12">
         <v>688.5</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54">
+      <c r="F12">
         <v>16.5</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12">
         <v>71</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12">
         <v>134</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54">
+      <c r="M12">
         <v>910</v>
       </c>
     </row>
@@ -31649,30 +30401,25 @@
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54">
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54">
+      <c r="G13">
         <v>232</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13">
         <v>62</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54">
+      <c r="J13">
         <v>4</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13">
         <v>76</v>
       </c>
-      <c r="M13" s="54">
+      <c r="M13">
         <v>385</v>
       </c>
     </row>
@@ -31680,28 +30427,22 @@
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54">
+      <c r="D14">
         <v>49.5</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14">
         <v>6.5</v>
       </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54">
+      <c r="G14">
         <v>155</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14">
         <v>248.5</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54">
+      <c r="L14">
         <v>12</v>
       </c>
-      <c r="M14" s="54">
+      <c r="M14">
         <v>471.5</v>
       </c>
     </row>
@@ -31709,34 +30450,31 @@
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54">
+      <c r="C15">
         <v>24.3</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15">
         <v>22.5</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54">
+      <c r="G15">
         <v>100</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15">
         <v>163.15</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15">
         <v>16.5</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15">
         <v>11</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15">
         <v>14</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15">
         <v>2</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15">
         <v>353.45000000000005</v>
       </c>
     </row>
@@ -31744,32 +30482,28 @@
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16">
         <v>54.5</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54">
+      <c r="G16">
         <v>145.5</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16">
         <v>157</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16">
         <v>36.5</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16">
         <v>12</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54">
+      <c r="L16">
         <v>48</v>
       </c>
-      <c r="M16" s="54">
+      <c r="M16">
         <v>454.5</v>
       </c>
     </row>
@@ -31777,30 +30511,25 @@
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54">
+      <c r="C17">
         <v>34</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54">
+      <c r="F17">
         <v>9</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17">
         <v>56</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17">
         <v>16</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54">
+      <c r="M17">
         <v>134</v>
       </c>
     </row>
@@ -31808,30 +30537,25 @@
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54">
+      <c r="G18">
         <v>208</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18">
         <v>37</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18">
         <v>17</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18">
         <v>112</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54">
+      <c r="L18">
         <v>17</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18">
         <v>392</v>
       </c>
     </row>
@@ -31839,30 +30563,25 @@
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54">
+      <c r="E19">
         <v>64</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54">
+      <c r="G19">
         <v>8</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19">
         <v>10.350000000000001</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19">
         <v>3.3</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19">
         <v>56.1</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54">
+      <c r="M19">
         <v>142.75</v>
       </c>
     </row>
@@ -31870,22 +30589,13 @@
       <c r="A20" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20">
         <v>1224</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54">
+      <c r="I20">
         <v>120</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54">
+      <c r="M20">
         <v>1344</v>
       </c>
     </row>
@@ -31893,28 +30603,22 @@
       <c r="A21" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21">
         <v>132</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21">
         <v>95</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54">
+      <c r="F21">
         <v>80</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21">
         <v>161</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21">
         <v>350</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54">
+      <c r="M21">
         <v>818</v>
       </c>
     </row>
@@ -31922,20 +30626,10 @@
       <c r="A22" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54">
+      <c r="J22">
         <v>11</v>
       </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54">
+      <c r="M22">
         <v>11</v>
       </c>
     </row>
@@ -31943,26 +30637,19 @@
       <c r="A23" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54">
+      <c r="G23">
         <v>24</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23">
         <v>7</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23">
         <v>7</v>
       </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54">
+      <c r="M23">
         <v>42</v>
       </c>
     </row>
@@ -31970,28 +30657,22 @@
       <c r="A24" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24">
         <v>4.5</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24">
         <v>24.5</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54">
+      <c r="G24">
         <v>24</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24">
         <v>12</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24">
         <v>2</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54">
+      <c r="M24">
         <v>67</v>
       </c>
     </row>
@@ -31999,22 +30680,13 @@
       <c r="A25" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54">
+      <c r="G25">
         <v>16</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25">
         <v>2.5</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54">
+      <c r="M25">
         <v>18.5</v>
       </c>
     </row>
@@ -32022,22 +30694,13 @@
       <c r="A26" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54">
+      <c r="G26">
         <v>16</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26">
         <v>20</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54">
+      <c r="M26">
         <v>36</v>
       </c>
     </row>
@@ -32045,20 +30708,10 @@
       <c r="A27" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54">
+      <c r="H27">
         <v>7.24</v>
       </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54">
+      <c r="M27">
         <v>7.24</v>
       </c>
     </row>
@@ -32066,40 +30719,40 @@
       <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="54">
+      <c r="B28">
         <v>2053</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28">
         <v>386.3</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28">
         <v>289</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28">
         <v>70.5</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28">
         <v>105.5</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28">
         <v>1807.5</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H28">
         <v>2167.7399999999998</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28">
         <v>327.3</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28">
         <v>225.1</v>
       </c>
-      <c r="K28" s="54">
+      <c r="K28">
         <v>90</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L28">
         <v>155</v>
       </c>
-      <c r="M28" s="54">
+      <c r="M28">
         <v>7676.94</v>
       </c>
     </row>
@@ -32114,7 +30767,7 @@
   <dimension ref="A1:I1623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1441" sqref="F1441"/>
+      <selection activeCell="C1552" sqref="C1552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
